--- a/Two_Pandas_ETL_Mapping_document.xlsx
+++ b/Two_Pandas_ETL_Mapping_document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/data_class/two_Pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FCA37A-C01C-F143-9687-4A3E76D2E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8FCC48-B45F-BF49-8292-F505C63F7331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28880" yWindow="500" windowWidth="38120" windowHeight="19180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28880" yWindow="500" windowWidth="38120" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apple_master" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>Overview:</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>1, 3</t>
+  </si>
+  <si>
+    <t>link: Connection String: https://github.com/TracieDiepBautista/two_Pandas/tree/main/resources"</t>
   </si>
 </sst>
 </file>
@@ -476,11 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -489,12 +491,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -506,8 +502,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -516,14 +510,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -547,24 +533,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -792,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -801,8 +822,8 @@
     <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="11" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="3" customWidth="1"/>
@@ -830,10 +851,10 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="12"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,476 +866,508 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="49">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="23">
         <f>B4</f>
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22" t="s">
+      <c r="D11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10">
+      <c r="J11" s="8"/>
+      <c r="K11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10">
+      <c r="D12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="D13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="10"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10">
+      <c r="D14" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="D15" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10">
+      <c r="J15" s="8"/>
+      <c r="K15" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
+      <c r="D18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10">
+      <c r="J18" s="8"/>
+      <c r="K18" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
+      <c r="D23" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
+      <c r="D24" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
+      <c r="D25" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
+      <c r="D26" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="23">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
+      <c r="D27" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
+      <c r="D28" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
+      <c r="D29" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
+      <c r="D30" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1322,26 +1375,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1369,11 +1422,11 @@
       <c r="A44" s="2">
         <v>3</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1402,327 +1455,327 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="34" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="34" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="34"/>
-    <col min="11" max="11" width="16.5" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="14.5" style="34"/>
+    <col min="1" max="1" width="18" style="25" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="25" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="25"/>
+    <col min="11" max="11" width="16.5" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="14.5" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="H3" s="38" t="s">
+      <c r="E3" s="42"/>
+      <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51">
-        <v>1</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="50">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="52"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
-        <v>1</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="41" t="s">
+      <c r="D10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40">
+      <c r="D11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="45" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="45" t="s">
+      <c r="D12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="45" t="s">
+      <c r="D13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40">
+      <c r="J13" s="31"/>
+      <c r="K13" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="45" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="45" t="s">
+      <c r="D14" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40">
+      <c r="J14" s="31"/>
+      <c r="K14" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
-        <v>1</v>
-      </c>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
-        <v>2</v>
-      </c>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="28">
+        <v>2</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1747,479 +1800,479 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="34" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="34" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="34"/>
-    <col min="11" max="11" width="16.5" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="14.5" style="34"/>
+    <col min="1" max="1" width="18" style="25" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="25" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="25"/>
+    <col min="11" max="11" width="16.5" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="14.5" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="H3" s="38" t="s">
+      <c r="E3" s="42"/>
+      <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51">
-        <v>1</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="50">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="52"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
-        <v>1</v>
-      </c>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="41" t="s">
+      <c r="D10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40" t="s">
+      <c r="D11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40" t="s">
+      <c r="D12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40" t="s">
+      <c r="D13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40">
+      <c r="J13" s="31"/>
+      <c r="K13" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40">
+      <c r="D14" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40" t="s">
+      <c r="D15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40">
+      <c r="J15" s="31"/>
+      <c r="K15" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40" t="s">
+      <c r="D16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40">
+      <c r="J16" s="31"/>
+      <c r="K16" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40" t="s">
+      <c r="D17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40">
+      <c r="J17" s="31"/>
+      <c r="K17" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40">
+      <c r="D18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40" t="s">
+      <c r="D19" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40">
+      <c r="J19" s="31"/>
+      <c r="K19" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40">
+      <c r="D20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40">
+      <c r="D21" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40">
+      <c r="D22" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="27"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
-        <v>1</v>
-      </c>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="28">
+        <v>1</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="37"/>
+      <c r="C35" s="28"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37">
-        <v>2</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="28">
+        <v>2</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2238,561 +2291,561 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="34" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="34" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="34"/>
-    <col min="11" max="11" width="16.5" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="14.5" style="34"/>
+    <col min="1" max="1" width="18" style="25" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="25" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="25"/>
+    <col min="11" max="11" width="16.5" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="14.5" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="H3" s="38" t="s">
+      <c r="E3" s="42"/>
+      <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51">
-        <v>2</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="50">
+        <v>2</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="52"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
-        <v>2</v>
-      </c>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="31">
+        <v>2</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="45" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="45" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40">
+      <c r="E12" s="35"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40">
+      <c r="J13" s="31"/>
+      <c r="K13" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
-        <v>2</v>
-      </c>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="31">
+        <v>2</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="31"/>
+      <c r="K15" s="43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40">
+      <c r="E16" s="35"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40">
+      <c r="J17" s="31"/>
+      <c r="K17" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40">
+      <c r="J18" s="31"/>
+      <c r="K18" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40">
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40">
+      <c r="E20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40">
+      <c r="J21" s="31"/>
+      <c r="K21" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40">
+      <c r="J22" s="31"/>
+      <c r="K22" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="30" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="30" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-    </row>
-    <row r="32" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-    </row>
-    <row r="33" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="35" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="35" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37">
-        <v>1</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28">
+        <v>1</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-    </row>
-    <row r="37" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="37" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28">
+        <v>2</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37">
+      <c r="C37" s="28"/>
+      <c r="D37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28">
         <v>3</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Two_Pandas_ETL_Mapping_document.xlsx
+++ b/Two_Pandas_ETL_Mapping_document.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/data_class/two_Pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8FCC48-B45F-BF49-8292-F505C63F7331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BB8D4D-EC9A-AA45-A1AD-7D915AC4F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28880" yWindow="500" windowWidth="38120" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28940" yWindow="500" windowWidth="38120" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apple_master" sheetId="1" r:id="rId1"/>
     <sheet name="google_play_store_review csv" sheetId="4" r:id="rId2"/>
     <sheet name="google_play_store csv" sheetId="5" r:id="rId3"/>
-    <sheet name="google_master (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="google_master" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>Overview:</t>
   </si>
@@ -540,6 +540,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -565,27 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,12 +809,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
+    <tabColor rgb="FF7030A0"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -822,7 +823,7 @@
     <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="44" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="11" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
@@ -851,7 +852,7 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="45" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="12"/>
@@ -866,13 +867,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="13"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
@@ -881,24 +882,24 @@
       <c r="H4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -910,7 +911,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="18"/>
@@ -935,7 +936,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="19"/>
       <c r="F10" s="16"/>
       <c r="G10" s="8"/>
@@ -955,7 +956,7 @@
       <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="20"/>
@@ -982,17 +983,21 @@
       <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,7 +1006,7 @@
       <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="20"/>
@@ -1024,7 +1029,7 @@
       <c r="C14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="20"/>
@@ -1042,7 +1047,7 @@
       <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="20"/>
@@ -1065,7 +1070,7 @@
       <c r="C16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="20"/>
@@ -1084,7 +1089,7 @@
       <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="20"/>
@@ -1103,7 +1108,7 @@
       <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="20"/>
@@ -1126,7 +1131,7 @@
       <c r="C19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="20"/>
@@ -1145,7 +1150,7 @@
       <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="20"/>
@@ -1164,7 +1169,7 @@
       <c r="C21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="20"/>
@@ -1183,17 +1188,21 @@
       <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="17"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1211,7 @@
       <c r="C23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="20"/>
@@ -1221,7 +1230,7 @@
       <c r="C24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="20"/>
@@ -1240,7 +1249,7 @@
       <c r="C25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="20"/>
@@ -1259,7 +1268,7 @@
       <c r="C26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="20"/>
@@ -1282,7 +1291,7 @@
       <c r="C27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="20"/>
@@ -1301,7 +1310,7 @@
       <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="20"/>
@@ -1320,7 +1329,7 @@
       <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="20"/>
@@ -1339,7 +1348,7 @@
       <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="20"/>
@@ -1360,7 +1369,7 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="59"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="21"/>
       <c r="F31" s="17"/>
       <c r="G31" s="9"/>
@@ -1375,26 +1384,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1425,8 +1434,8 @@
       <c r="B44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="47"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1502,10 +1511,10 @@
       <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50">
-        <v>1</v>
-      </c>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="27"/>
@@ -1517,24 +1526,24 @@
       <c r="H4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="53"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
@@ -1847,10 +1856,10 @@
       <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50">
-        <v>1</v>
-      </c>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="27"/>
@@ -1862,24 +1871,24 @@
       <c r="H4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="53"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
@@ -2287,6 +2296,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33CAAEF-6B50-7F48-BBEC-FAEF95F90551}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K38"/>
@@ -2344,10 +2354,10 @@
       <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50">
-        <v>2</v>
-      </c>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="57">
+        <v>2</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="27"/>
@@ -2359,24 +2369,24 @@
       <c r="H4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="53"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
